--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_242.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_242.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:21.440000', '0:00:24.060000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.200000', '0:00:15.040000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:38.120000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:41.440000', '0:01:52.400000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:01:39.600000', '0:01:51.620000'), ('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.06, 6.451609)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.2, 40.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
